--- a/excel_templates/Inputs to UNAIDS Estimates 2020/survey_inputs.xlsx
+++ b/excel_templates/Inputs to UNAIDS Estimates 2020/survey_inputs.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Column Definitions" sheetId="1" state="visible" r:id="rId2"/>
@@ -21,12 +21,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="47">
   <si>
     <t xml:space="preserve">UNAIDS Survey Indicators Input | Data Template</t>
   </si>
   <si>
-    <t xml:space="preserve">version 2.0; 2020-08-14</t>
+    <t xml:space="preserve">version 2.1; 2020-11-10</t>
   </si>
   <si>
     <t xml:space="preserve">Please use the following definitions to fill in the template overleaf. If data does not exist, please indicate so with the value "NA" and ignore any warning given by Excel.</t>
@@ -62,15 +62,15 @@
     <t xml:space="preserve">none</t>
   </si>
   <si>
+    <t xml:space="preserve">TRUE</t>
+  </si>
+  <si>
     <t xml:space="preserve">survey_id</t>
   </si>
   <si>
     <t xml:space="preserve">The ID of the survey</t>
   </si>
   <si>
-    <t xml:space="preserve">TRUE</t>
-  </si>
-  <si>
     <t xml:space="preserve">survey_mid_calendar_quarter</t>
   </si>
   <si>
@@ -128,16 +128,22 @@
     <t xml:space="preserve">The number of survey observations</t>
   </si>
   <si>
+    <t xml:space="preserve">n_eff_kish</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The effective number of observations based on Kish effective sample size</t>
+  </si>
+  <si>
+    <t xml:space="preserve">number</t>
+  </si>
+  <si>
     <t xml:space="preserve">estimate</t>
   </si>
   <si>
     <t xml:space="preserve">The value of the survey estimate</t>
   </si>
   <si>
-    <t xml:space="preserve">float</t>
-  </si>
-  <si>
-    <t xml:space="preserve">se</t>
+    <t xml:space="preserve">std_error</t>
   </si>
   <si>
     <t xml:space="preserve">The standard error on the estimate</t>
@@ -153,9 +159,6 @@
   </si>
   <si>
     <t xml:space="preserve">The value of the 95% confidence interval upper bound</t>
-  </si>
-  <si>
-    <t xml:space="preserve">number</t>
   </si>
   <si>
     <t xml:space="preserve">** For each row, the fields that contribute to the unique key must form a unique combination of values across the data set.</t>
@@ -297,12 +300,12 @@
     </xf>
   </cellXfs>
   <cellStyles count="6">
-    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
-    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
-    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
-    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
-    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
-    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5"/>
   </cellStyles>
   <colors>
     <indexedColors>
@@ -368,28 +371,27 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F28"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.59"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.08"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="26.58"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="65.07"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.05"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.47"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="9.48"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="48.39"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.81"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="7" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="13.8"/>
   </cols>
   <sheetData>
-    <row r="1" customFormat="false" ht="17.35" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -399,7 +401,7 @@
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
     </row>
-    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="2" t="s">
         <v>1</v>
       </c>
@@ -409,7 +411,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
     </row>
-    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -419,7 +421,7 @@
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
     </row>
-    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="7" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="4" t="s">
         <v>3</v>
       </c>
@@ -439,7 +441,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="8" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="0" t="s">
         <v>9</v>
       </c>
@@ -455,13 +457,16 @@
       <c r="E8" s="0" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="F8" s="0" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="0" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C9" s="0" t="s">
         <v>11</v>
@@ -473,10 +478,10 @@
         <v>12</v>
       </c>
       <c r="F9" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="s">
         <v>16</v>
       </c>
@@ -493,10 +498,10 @@
         <v>12</v>
       </c>
       <c r="F10" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="0" t="s">
         <v>18</v>
       </c>
@@ -513,10 +518,10 @@
         <v>12</v>
       </c>
       <c r="F11" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="s">
         <v>20</v>
       </c>
@@ -533,7 +538,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="13" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="s">
         <v>23</v>
       </c>
@@ -550,7 +555,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="14" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="s">
         <v>25</v>
       </c>
@@ -567,10 +572,10 @@
         <v>27</v>
       </c>
       <c r="F14" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="s">
         <v>28</v>
       </c>
@@ -587,10 +592,10 @@
         <v>12</v>
       </c>
       <c r="F15" s="0" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="0" t="s">
         <v>30</v>
       </c>
@@ -607,7 +612,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="17" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="0" t="s">
         <v>33</v>
       </c>
@@ -624,7 +629,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="s">
         <v>35</v>
       </c>
@@ -635,13 +640,13 @@
         <v>37</v>
       </c>
       <c r="D18" s="0" t="s">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="E18" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="19" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="s">
         <v>38</v>
       </c>
@@ -658,7 +663,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="20" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="0" t="s">
         <v>40</v>
       </c>
@@ -669,13 +674,13 @@
         <v>37</v>
       </c>
       <c r="D20" s="0" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="E20" s="0" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="21" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="s">
         <v>42</v>
       </c>
@@ -683,7 +688,7 @@
         <v>43</v>
       </c>
       <c r="C21" s="0" t="s">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="D21" s="0" t="s">
         <v>22</v>
@@ -692,30 +697,47 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="5"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-    </row>
-    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="3" t="s">
+    <row r="22" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="0" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" s="0" t="s">
         <v>45</v>
       </c>
-      <c r="B27" s="3"/>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
+      <c r="C22" s="0" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="0" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="0" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="5"/>
+      <c r="B23" s="5"/>
+      <c r="C23" s="5"/>
+      <c r="D23" s="5"/>
+      <c r="E23" s="5"/>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="28" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28" s="3"/>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A1:F1"/>
     <mergeCell ref="A3:F3"/>
     <mergeCell ref="A4:F4"/>
-    <mergeCell ref="A27:F27"/>
+    <mergeCell ref="A28:F28"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
@@ -728,33 +750,33 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:N1"/>
+  <dimension ref="A1:O1"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C10" activeCellId="0" sqref="C10"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="1:1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.78"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="9.77"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="27.13"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="7.95"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="11.16"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.36"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="4.35"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="10.32"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="0" width="14.77"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="9.2"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="3.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="8.94"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="9.07"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="15" style="0" width="8.67"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="10.32"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="12" min="12" style="0" width="9.2"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="13" min="13" style="0" width="9.48"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="14" min="14" style="0" width="8.94"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="15" min="15" style="0" width="9.07"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -762,7 +784,7 @@
         <v>9</v>
       </c>
       <c r="B1" s="4" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C1" s="4" t="s">
         <v>16</v>
@@ -800,8 +822,17 @@
       <c r="N1" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="O1" s="4" t="s">
+        <v>44</v>
+      </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation allowBlank="true" operator="between" showDropDown="false" showErrorMessage="true" showInputMessage="true" sqref="G2:G1001" type="list">
+      <formula1>"both,female,male"</formula1>
+      <formula2>0</formula2>
+    </dataValidation>
+  </dataValidations>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
   <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
